--- a/biology/Histoire de la zoologie et de la botanique/André_Marie_Constant_Duméril/André_Marie_Constant_Duméril.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Marie_Constant_Duméril/André_Marie_Constant_Duméril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
+          <t>André_Marie_Constant_Duméril</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Marie Constant Duméril, né le 1er janvier 1774 à Amiens (Somme) et mort le 14 août 1860 à Paris, est un zoologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
+          <t>André_Marie_Constant_Duméril</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un enseignant de médecine
-Il devient rapidement médecin et est nommé, en 1793, prévôt d'anatomie à l'École de médecine de Rouen. En 1800, il s'installe à Paris et collabore à la rédaction des Leçons d'anatomie comparée de Georges Cuvier (1769-1832).
+          <t>Un enseignant de médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient rapidement médecin et est nommé, en 1793, prévôt d'anatomie à l'École de médecine de Rouen. En 1800, il s'installe à Paris et collabore à la rédaction des Leçons d'anatomie comparée de Georges Cuvier (1769-1832).
 Il remplace ce dernier à l'École centrale du Panthéon et a pour collègue Alexandre Brongniart (1770-1847). En 1801, il est nommé chef des travaux anatomiques et donne des cours à l'École de médecine de Paris. Il obtient en 1801, à la Faculté, la chaire d'anatomie, qu'il échange plus tard contre celles de physiologie et de pathologie.
 Sous la Restauration, il est élu membre de l'Académie des sciences en 1816 et succède, dès 1803, à Lacépède (1756-1825) à la chaire d'herpétologie et d'ichtyologie au Muséum national d'histoire naturelle, occupé par ses fonctions politiques. Mais Duméril ne recevra officiellement cette chaire qu'en 1825, après la mort de Lacépède. Il remplit ses diverses fonctions avec zèle presque jusqu'à la fin de sa longue vie. Il est nommé membre de l'Académie de médecine dès la fondation de cette dernière.
-Un zoologue
-Il publie en 1804 un Traité élémentaire d'Histoire naturelle (1804).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>André_Marie_Constant_Duméril</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Un zoologue</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie en 1804 un Traité élémentaire d'Histoire naturelle (1804).
 Il fait paraître en 1806 sa Zoologie analytique, qui couvre l'ensemble du règne animal et qui montre les relations entre les genres, mais ne mentionne pas les espèces.
 En 1832, Gabriel Bibron (1805-1848), qui devient son assistant, est chargé de la description des espèces tandis que Nicolaus Michael Oppel (1782-1820) l'assiste dans les travaux de systématique supérieure au genre. Après la mort prématurée de Bibron, c'est son fils, Auguste Duméril (1812-1870), qui le remplace.
 Mais la mort de Bibron empêche, durant dix ans, la publication de ses nouveaux travaux. En 1851, le père et le fils Duméril signent le Catalogue méthodique de la collection des reptiles (bien que son fils en soit, semble-t-il, le véritable auteur) et en 1853, le père seul, Prodrome de la classification des reptiles ophidiens. Ce dernier ouvrage propose une classification de tous les serpents en sept volumes.
@@ -531,45 +583,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C. Duméril &amp; G. Bibron, Erpétologie générale ou Histoire naturelle complète des reptiles, 1834, Librairie encyclopédique de Roret, Paris[1]
-A.M. Constant Duméril, Zoologie analytique, ou Méthode naturelle de classification des Animaux, rendue plus facile à l'aide de tableaux synoptiques, Imprimerie de H.L. Perronneau, Allais libraire, Paris, 1806. [lire en ligne]
-Constant Duméril, Entomologie analytique, dans Mémoires de l'Académie des sciences de l'Institut de France, 1860, Gauthier-Villars, Paris, tome 31, 1379 p. (lire en ligne)</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
+          <t>André_Marie_Constant_Duméril</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +604,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C. Duméril &amp; G. Bibron, Erpétologie générale ou Histoire naturelle complète des reptiles, 1834, Librairie encyclopédique de Roret, Paris
+A.M. Constant Duméril, Zoologie analytique, ou Méthode naturelle de classification des Animaux, rendue plus facile à l'aide de tableaux synoptiques, Imprimerie de H.L. Perronneau, Allais libraire, Paris, 1806. [lire en ligne]
+Constant Duméril, Entomologie analytique, dans Mémoires de l'Académie des sciences de l'Institut de France, 1860, Gauthier-Villars, Paris, tome 31, 1379 p. (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Marie_Constant_Duméril</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Décorations et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il fut membre de l'Académie des sciences, des lettres et des arts d'Amiens.
 Il est élevé au grade de commandeur de la Légion d'honneur deux mois avant sa mort.
@@ -596,31 +652,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Marie_Constant_Duméril</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Marie_Constant_Dum%C3%A9ril</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1822 : portrait gravé par Julien Léopold Boilly (1786-1874) ;
 1825 : portrait gravé par Ambroise Tardieu (1788-1841) ;
